--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291B4E4-C835-434F-81BA-04C048D1DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AA1D0-6E55-4B40-B0F7-64E4AC6BD8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S4aH2,S5aH4,S3aH3,S3aH5,S5aH3,S1aH2,S2aH3,S3aH2,S4aH5,S3aH4,S4aH3,S4aH4,S1aH3,S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
-  </si>
-  <si>
-    <t>S2aH1,S3aH7,S5aH8,S2aH6,S3aH1,S4aH6,S2aH8,S1aH8,S5aH1,S3aH8,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH8,S4aH1,S1aH6</t>
+    <t>S1aH2,S2aH3,S3aH2,S4aH5,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S3aH4,S4aH3,S4aH4,S3aH3,S1aH4,S2aH2,S4aH2,S3aH5,S5aH3</t>
+  </si>
+  <si>
+    <t>S4aH8,S2aH6,S3aH1,S3aH8,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2aH8,S4aH6,S4aH1,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S1aH8,S5aH1</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S3aH7,S5aH8,S2aH6,S3aH1,S4aH6,S2aH8,S1aH8,S5aH1,S3aH8,S1aH1,S2aH7,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S4aH8,S4aH1,S1aH6</v>
+        <v>S4aH8,S2aH6,S3aH1,S3aH8,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2aH8,S4aH6,S4aH1,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S1aH8,S5aH1</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S4aH2,S5aH4,S3aH3,S3aH5,S5aH3,S1aH2,S2aH3,S3aH2,S4aH5,S3aH4,S4aH3,S4aH4,S1aH3,S1aH4,S2aH2,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
+        <v>S1aH2,S2aH3,S3aH2,S4aH5,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S3aH4,S4aH3,S4aH4,S3aH3,S1aH4,S2aH2,S4aH2,S3aH5,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16E17DF-356A-41B5-BDC7-14A19B1B0D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3A67A6-05F2-4DD5-8DAA-69A152E0047D}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79609ABF-B55C-4D4B-8A25-D902A68643A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36900833-4123-410C-951C-11E61F6DC664}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1884,10 +1884,10 @@
         <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.18220731142989358</v>
+        <v>7.5520592318371119E-2</v>
       </c>
       <c r="O4" t="s">
         <v>148</v>
@@ -1919,10 +1919,10 @@
         <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>0.63189495603887091</v>
+        <v>0.18220731142989358</v>
       </c>
       <c r="O5" t="s">
         <v>148</v>
@@ -1954,10 +1954,10 @@
         <v>137</v>
       </c>
       <c r="M6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="N6">
-        <v>0.16266774641369736</v>
+        <v>0.63189495603887091</v>
       </c>
       <c r="O6" t="s">
         <v>148</v>
@@ -1989,10 +1989,10 @@
         <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>7.5520592318371119E-2</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O7" t="s">
         <v>148</v>
@@ -2024,10 +2024,10 @@
         <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N8">
-        <v>0.14770939379916706</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O8" t="s">
         <v>148</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CC11CE-EB26-4269-91EE-6188CFDDC174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7C63DF-5D53-42DC-AA43-1FB70ECA31F4}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts48_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AA1D0-6E55-4B40-B0F7-64E4AC6BD8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4142BF38-15FD-4DF3-A98A-3F521592C163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -465,10 +465,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH2,S2aH3,S3aH2,S4aH5,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S3aH4,S4aH3,S4aH4,S3aH3,S1aH4,S2aH2,S4aH2,S3aH5,S5aH3</t>
-  </si>
-  <si>
-    <t>S4aH8,S2aH6,S3aH1,S3aH8,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2aH8,S4aH6,S4aH1,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S1aH8,S5aH1</t>
+    <t>S5aH4,S1aH2,S2aH3,S3aH5,S5aH3,S1aH4,S2aH2,S3aH3,S4aH5,S3aH2,S4aH2,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</t>
+  </si>
+  <si>
+    <t>S2aH8,S1aH1,S2aH7,S1aH8,S5aH1,S4aH1,S4aH6,S2aH6,S3aH1,S3aH8,S2aH1,S3aH7,S5aH8,S4aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S4aH8,S2aH6,S3aH1,S3aH8,S1aH6,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S2aH8,S4aH6,S4aH1,S2aH1,S3aH7,S5aH8,S1aH1,S2aH7,S1aH8,S5aH1</v>
+        <v>S2aH8,S1aH1,S2aH7,S1aH8,S5aH1,S4aH1,S4aH6,S2aH6,S3aH1,S3aH8,S2aH1,S3aH7,S5aH8,S4aH8,S1aH7,S3aH6,S4aH7,S5aH6,S5aH7,S1aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH2,S2aH3,S3aH2,S4aH5,S5aH4,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S1aH3,S3aH4,S4aH3,S4aH4,S3aH3,S1aH4,S2aH2,S4aH2,S3aH5,S5aH3</v>
+        <v>S5aH4,S1aH2,S2aH3,S3aH5,S5aH3,S1aH4,S2aH2,S3aH3,S4aH5,S3aH2,S4aH2,S3aH4,S4aH3,S4aH4,S1aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1685,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3A67A6-05F2-4DD5-8DAA-69A152E0047D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8330EB64-9520-403C-A873-52E3CD4BA02D}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,7 +1805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36900833-4123-410C-951C-11E61F6DC664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1775CEB-96BB-4AE8-A179-C004EF2C271B}">
   <dimension ref="B2:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1989,10 +1989,10 @@
         <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>0.14770939379916706</v>
+        <v>0.16266774641369736</v>
       </c>
       <c r="O7" t="s">
         <v>148</v>
@@ -2024,10 +2024,10 @@
         <v>137</v>
       </c>
       <c r="M8" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N8">
-        <v>0.16266774641369736</v>
+        <v>0.14770939379916706</v>
       </c>
       <c r="O8" t="s">
         <v>148</v>
@@ -2949,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7C63DF-5D53-42DC-AA43-1FB70ECA31F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0729A7-673F-42CF-B37A-704F0B964EC3}">
   <dimension ref="B2:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
